--- a/Daily_Sheet/Daily work.xlsx
+++ b/Daily_Sheet/Daily work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\Git Sample\GET_Workout\Daily_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46804FAC-2F7D-4F9D-B9E3-4D31BEEB8E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9089AD0-740E-40A0-A4FE-B236CEED1FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B310A3D5-955C-4144-8507-7D167CD63E0B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>S.NO</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Types of services and programming examples</t>
   </si>
   <si>
-    <t>C:\Users\z032341\Documents\Forms\AngularJsForm</t>
-  </si>
-  <si>
     <t>C:\Users\z032341\Documents\Forms\JsForm</t>
   </si>
   <si>
@@ -159,148 +156,110 @@
     <t>Add data into the Grid using userinput</t>
   </si>
   <si>
-    <t>GITHUB LOCATION</t>
-  </si>
-  <si>
-    <r>
-      <t>GET_Workout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>/JS/Js_Forms/Services/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>service.html</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Create Git-Hub account and repositories</t>
-  </si>
-  <si>
-    <t>Git-Hub respositories and push all the folder and files using Git-Bash comment</t>
-  </si>
-  <si>
-    <r>
-      <t>GET_Workout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF24292F"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>/JS/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF24292F"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>Array_Js</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF24292F"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GET_Workout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>/daily_sample_programs/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sum of digits.html</t>
-    </r>
-  </si>
-  <si>
-    <t>GET_Workout/Angular JS/Angularjs_Forms_Grid/AngularJsForm/direct.html</t>
-  </si>
-  <si>
-    <r>
-      <t>GET_Workout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF24292F"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>/Angular JS/Angularjs_Programs/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF24292F"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>Storage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF24292F"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-  </si>
-  <si>
-    <t>GET_Workout/Angular JS/Angularjs_Forms_Grid/AngularJsForm/index.html</t>
-  </si>
-  <si>
-    <t>GET_Workout/JS/Js_Forms/JsForm/index.html</t>
-  </si>
-  <si>
-    <t>GET_Workout/JS/Js_Forms/Services/service001/index.html</t>
-  </si>
-  <si>
-    <t>GET_Workout/JS/Js_Forms/Services/service002/index.html</t>
-  </si>
-  <si>
-    <t>GET_Workout/JS/Js_Forms/Services/service003/service003.html</t>
+    <t>C:\Users\z032341\Documents\Grids\Angularjs_Forms_Grid</t>
+  </si>
+  <si>
+    <t>learn application</t>
+  </si>
+  <si>
+    <t>C:\Users\Public\ProjectWorkspace\Cpro_App</t>
+  </si>
+  <si>
+    <t>Change popup title in partmatrix massupdate screen</t>
+  </si>
+  <si>
+    <t>create button in partmatrix screen</t>
+  </si>
+  <si>
+    <t>show alert popup by clicking that button we created in partmatrix</t>
+  </si>
+  <si>
+    <t>get value from Grid in partmatrix</t>
+  </si>
+  <si>
+    <t>use ag-grid community convert js code to angularjs</t>
+  </si>
+  <si>
+    <t>local storage filter in angularjs</t>
+  </si>
+  <si>
+    <t>Create a button in alert popup in part-matrix screen</t>
+  </si>
+  <si>
+    <t>Task- Create two button with the help of image one for default column another one for filter delete</t>
+  </si>
+  <si>
+    <t>C:\Users\z032341\Documents\Grids\AG-Grid2</t>
+  </si>
+  <si>
+    <t>Task-If I change the grid column and then click the deafult column button it should show the default column</t>
+  </si>
+  <si>
+    <t>Task-If I apply filter any column or row it should filter and if once I click the filter delete It will show all the data in the grid</t>
+  </si>
+  <si>
+    <t>Task-If I apply filter any column or row it should filter and if I refresh it it will show the same filter we used with the help of local storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task - If I click the default and filter button It show message using alert </t>
+  </si>
+  <si>
+    <t>Task - If I click the default and filter button It show message in top of the grid using css</t>
+  </si>
+  <si>
+    <t>Task-If I click the default and filter button message will automatically disappear with in 5 seconds</t>
+  </si>
+  <si>
+    <t>Task-If I click the default and filter button the msg in default show blue color and filter shows red color message</t>
+  </si>
+  <si>
+    <t>Sprint planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where I have to fix the bug in DLM screen </t>
+  </si>
+  <si>
+    <t>Learn Responsive View Concepts</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/html/html_responsive.asp</t>
+  </si>
+  <si>
+    <t>Create a website using Responsive View</t>
+  </si>
+  <si>
+    <t>C:\Users\z032341\Documents\Grids\Responsive view</t>
+  </si>
+  <si>
+    <t>I our application there is a bug  called Delete carriage return and I fixed that one</t>
+  </si>
+  <si>
+    <t>In same delete carriage return in DLM screen where if I copy paste the word with space aslo it should work and I completed</t>
+  </si>
+  <si>
+    <t>In same delete carriage return in DLM screen where if I save with space  aslo it should work and I completed that too</t>
+  </si>
+  <si>
+    <t>In our application I have to add tooltip for UseCase in DLM screen --- Task</t>
+  </si>
+  <si>
+    <t>CPRO-Release plan</t>
+  </si>
+  <si>
+    <t>In our application I have to add tooltip for the required column they mentioned in DLM screen --- Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And I completed the task to add tooltip in DLM  screen </t>
+  </si>
+  <si>
+    <t>Analysing the code flow of application to upgrade version in Ag-grid with the help of dinesh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,18 +278,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FF24292F"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF24292F"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -374,10 +321,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -693,16 +640,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7733A237-C89F-48A0-BD7F-C25F14710886}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.90625" customWidth="1"/>
+    <col min="3" max="3" width="109.90625" customWidth="1"/>
     <col min="4" max="4" width="52.36328125" customWidth="1"/>
     <col min="5" max="5" width="55.26953125" customWidth="1"/>
   </cols>
@@ -718,536 +665,834 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44601</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>44601</v>
+        <v>44629</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>44602</v>
+        <v>44630</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>44602</v>
+        <v>44631</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>44603</v>
+        <v>44632</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>44603</v>
+        <v>44633</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>44606</v>
+        <v>44634</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>44607</v>
+        <v>44635</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>44607</v>
+        <v>44636</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>44608</v>
+        <v>44637</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>44609</v>
+        <v>44638</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>44610</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>44613</v>
+        <v>44640</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>44614</v>
+        <v>44641</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>44615</v>
+        <v>44642</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>44616</v>
+        <v>44643</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>44617</v>
+        <v>44644</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>44620</v>
+        <v>44645</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>44593</v>
+        <v>44646</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>44594</v>
+        <v>44647</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>44595</v>
+        <v>44648</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>44596</v>
+        <v>44649</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>44234</v>
+        <v>44650</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>44294</v>
+        <v>44651</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>44295</v>
+        <v>44652</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>44296</v>
+        <v>44660</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>44297</v>
+        <v>44661</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>44300</v>
+        <v>44662</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>44301</v>
+        <v>44666</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>44302</v>
+        <v>44669</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44670</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>44303</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" s="1">
+        <v>44671</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44672</v>
+      </c>
+      <c r="C34" t="s">
         <v>44</v>
       </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44673</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44676</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44677</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44678</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44679</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44680</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44683</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44685</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44686</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44687</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44690</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44691</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44692</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44693</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44694</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44698</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44699</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44700</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44701</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>44704</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>44705</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>44706</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>44707</v>
+      </c>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>44708</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>44711</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>44712</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" display="https://www.tutorialspoint.com/angularjs/angularjs_services.htm" xr:uid="{046234E0-30FB-41A8-B28F-9FA4EE7FC8F5}"/>
-    <hyperlink ref="D13" r:id="rId2" xr:uid="{C18CEB99-033F-407B-A28B-4679F9FB0431}"/>
-    <hyperlink ref="E12" r:id="rId3" display="https://www.tutorialspoint.com/angularjs/angularjs_services.htm" xr:uid="{54607DA6-8F1F-426E-9111-08886FC87672}"/>
-    <hyperlink ref="E13" r:id="rId4" xr:uid="{7796873F-08EC-4E98-9720-CB4B2F225F9D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;1#&amp;"Arial"&amp;10&amp;K000000Confidential C</oddFooter>
   </headerFooter>
